--- a/files/#Archive/galen_results_grouped_by_model_db.xlsx
+++ b/files/#Archive/galen_results_grouped_by_model_db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -25,9 +25,21 @@
     <t>Response</t>
   </si>
   <si>
+    <t>Latency</t>
+  </si>
+  <si>
     <t>mistral-7b</t>
   </si>
   <si>
+    <t>llama2-70b</t>
+  </si>
+  <si>
+    <t>mixtral-instruct</t>
+  </si>
+  <si>
+    <t>deepseek_33bq</t>
+  </si>
+  <si>
     <t>Which cell lines have high dependency for the target of interest for the gene POLR3E?</t>
   </si>
   <si>
@@ -46,10 +58,19 @@
     <t>Relationship between dependency scores of JAK1 in DepMapDB.</t>
   </si>
   <si>
-    <t>``` SQL   -- Ass uming the following table names and columns based on the given context  -- Table: prote ins( id, name, pas_ domain_ sequence)  -- Table: mut ations( id, protein_ id, position, type)  -- Table: cell_ lines( id, name, ic50)   -- First, join prote ins and mut ations tables using protein_ id  SELECTp. name AS protein_ name,m. position,m. type  FROM prote insp  JO IN mut ationsm ONp. id=m. prote in_ id W HEREp. name=' target_ prote in' -- replace with the actual protein name  ANDp. pas_ domain_ sequence IS NOT NULL -- assuming pas_ domain_ sequence is stored in prote ins table   -- Then, filter mut ations that are located inP AS domain  -- This assumes that the length ofP AS domain is known and stored ina variable or hardc oded value  -- Re place' start_ index' and' end_ index' with actual values  -- For example, if theP AS domain of the target protein is between positions 100 and 200:  ANDm. positionB ET WE EN start_ index AND end_ index   -- Join the result with cell_ lines table using ic50 values  -- Ass uming the select ivity is in vers ely proport ional to ic50, so lower ic50 values indicate higher select ivity for pro state cancer cell lines  -- Re place' pro state_ cell_ line_ id' with the actual id of the pro state cell line  SELECT protein_ name, position, type, ic50  FROM(   SE LECTp. name AS protein_ name,m. position,m. type   FROM prote insp   JO IN mut ationsm ONp. id=m. prote in_ id   WHEREp. name=' target_ prote in'   ANDp. pas_ domain_ sequence IS NOT NULL   ANDm. positionB ET WE EN start_ index AND end_ index ) mut ations  JO IN cell_ lines cl ON mut ations. id= cl. mut ation_ id -- assuming there isa mut ation_ id column in cell_ lines table W HERE cl. id= pro state_ cell_ line_ id  ORDER BY</t>
-  </si>
-  <si>
-    <t>```sql--JointheCCLE_GisticCNDBandCCLEMutDBtablesontheDepMap_IDcolumnforgenePOLR3ESELECTc.CCLE_Name,g.gistic_cnFROMccle_cn_gisticcJOINccle_mutationgONc.DepMap_ID=g.DepMap_IDWHEREHugo_Symbol='POLR3E';--Gettheabsolutevalueofgistic_cnandcheckifitissignificantlydifferentbetweencancerandnormaltissues--Thisqueryassumesthatthereisaseparatetableorcolumnthatindicatesthetissuetype(cancerornormal)foreachentryintheCCLE_GisticCNDBtable--Replace'tissue_type_table'and'tissue_type_column'withtheactualnamesofthetableandcolumnthatcontainthisinformation--Thisqueryalsoassumesthatthereisafunctionorwaytodetermineifthegeneisoverexpressedorunderexpressedbasedonthegistic_cnvalueDECLARE@POLR3E_gistic_cnVARCHAR(10);SET@POLR3E_gistic_cn=(SELECTABS(CAST(gistic_cnASINT))FROMccle_cn_gisticJOINccle_mutationmONccle_cn_gistic.DepMap_ID=ccle_mutation.DepMap_IDWHEREHugo_Symbol='POLR3E');SELECT'POLR3E'ASGene_Symbol,@POLR3E_gistic_cnASgistic_cn,(--ReplacethisquerywiththeactuallogictodetermineifthegeneisoverexpressedorunderexpressedCASEWHEN(SELECTCOUNT(*)FROMtissue_type_tableWHEREtissue_type='cancer'ANDDepMap_ID=c.DepMap_IDANDABS(CAST(gistic_cnASINT))&gt;(--ReplacethisquerywiththeactuallogictodeterminethethresholdforsignificantdifferentialexpressionSELECTAVG(ABS(CAST(gistic_cnASINT)))FROMtissue_type_tableWHEREtissue</t>
+    <t>```sql--AssumingthetargetofinterestisaspecificgenewithHugo_Symbol'POLR3E'--JointhethreetablesonDepMap_IDSELECTccle_gistic.CCLE_NameFROMccle_cn_gisticASccle_gisticJOINccle_mutationASccle_mutationONccle_gistic.DepMap_ID=ccle_mutation.DepMap_IDWHEREccle_mutation.Hugo_Symbol='POLR3E'--FilterbygenesymbolAND(ccle_gistic.gistic_cnISNOTNULL)--OnlyconsiderCNalterationsAND(ccle_gistic.gistic_cnLIKE'%high%')--Filterforhighcopynumberalterations--Alternatively,youcanusetheccle_variantstableifyou'relookingformutationsinsteadofcopynumberalterations--AND(ccle_mutation.Variant_Classification='Missense_Mutation')--Filterformissensemutationsifthat'sthetypeofmutationofinterest--AND(ccle_mutation.isDeleterious='True')--Filterfordeleteriousmutations--AND(ccle_mutation.isTCGAhotspot='True')--Filterforhotspotmutations--OR(ccle_mutation.isCOSMIChotspot='True')--FilterforCOSMIChotspotmutations--Thisqueryassumesthatthere'saconsistentDepMap_IDacrossallthreedatabases--Ifthereisn't,youmayneedtouseajoinkeythat'scommontoallthreedatabases--oruseatemporarytabletomergethedatabeforerunningthisquery'''</t>
+  </si>
+  <si>
+    <t>SQLquery:SELECTDISTINCTcvd.DepMap_IDFROMccle_variantscvdJOINccle_mutationcmONcvd.gene_name=cm.Hugo_SymbolJOINccle_cn_gisticccgONcvd.gene_name=ccg.Hugo_SymbolWHEREcvd.gene_name='POLR3E'ANDccg.gistic_cn='High'ANDcm.Variant_Classification='Missense_Mutation';</t>
+  </si>
+  <si>
+    <t>'''SELECTv.DepMap\_ID,v.Chrom,v.Pos,v.Ref,v.Alt,v.AF,v.VariantType,v.DNAChange,v.ProteinChange,v.gene\_name,v.Transcript,v.CCLEDeleterious,v.CosmicHotspot,v.AssociatedWith,v.LoF,v.Driver,v.LikelyDriver,v.LikelyGoF,v.LikelyLoF,v.VariantAnnotation,c.gistic\_cnFROMccle\_variantsvJOINccle\_cn\_gisticcONv.DepMap\_ID=c.DepMap\_IDWHEREv.gene\_name='POLR3E'ORDERBYv.Pos;Thisqueryselectsthenecessarycolumnsfromthe'ccle\_variants'and'ccle\_cn\_gistic'tables,joinsthemonthe'DepMap\_ID'column,filtersforthegeneofinterest(POLR3E),andorderstheresultsbyposition.The'gistic\_cn'columnfromthe'ccle\_cn\_gistic'tablewillindicatewhethertherearespecificregionsoftheproteinwheremutationsoccuratahigherfrequency.</t>
+  </si>
+  <si>
+    <t>SELECTccg.Hugo_Symbol,ccm.Entrez_Gene_Id,ccm.NCBI_Build,ccm.Chromosome,ccm.Start_position,ccm.End_position,ccm.Strand,ccm.Variant_Classification,ccm.Variant_Type,ccm.Reference_Allele,ccm.Alternate_Allele,ccm.dbSNP_RS,ccm.dbSNP_Val_Status,ccm.Genome_Change,ccm.Annotation_Transcript,ccm.DepMap_ID,ccm.cDNA_Change,ccm.Codon_Change,ccm.Protein_Change,ccm.isDeleterious,ccm.isTCGAhotspot,ccm.TCGAhsCnt,ccm.isCOSMIChotspot,ccm.COSMIChsCnt,ccm.ExAC_AF,ccm.Variant_annotation,ccm.CGA_WES_AC,ccm.HC_AC,ccm.RD_AC,ccm.RNAseq_AC,ccm.SangerWES_AC,ccm.WGS_AC,ccv.Chrom,ccv.Pos,ccv.Ref,ccv.Alt,ccv.AF,ccv.VariantType,ccv.VariantInfo,ccv.DNAChange,ccv.ProteinChange,ccv.gene_name,ccv.Transcript,ccv.CCLEDeleterious,ccv.CosmicHotspot,ccv.AssociatedWith,ccv.LoF,ccv.Driver,ccv.LikelyDriver,ccv.LikelyGoF,ccv.LikelyLoF,ccv.VariantAnnotation,ccv.copy_numberFROMccle_mutationccmJOINccle_variantsccvONccm.DepMap_ID=ccv.DepMap_IDJOINccle_cn_gisticccgONccm.DepMap_ID=ccg.DepMap_IDWHEREccg.Hugo_Symbol='PAS'ANDc</t>
+  </si>
+  <si>
+    <t>Toanswerthequestion,youneedtoperformaself-joinoperationonthe'ccle_mutation'tableinthe'CCLEMutDB.db'database.Theself-joinoperationisnecessarytocomparethedependencyscoresofJAK1betweendifferentsamples.Here'stheSQLquery:'''SQLquerySELECTa.DepMap\_ID,a.Hugo\_Symbol,a.isDeleterious,a.isTCGAhotspot,a.TCGAhsCnt,a.isCOSMIChotspot,a.COSMIChsCnt,a.ExAC\_AF,a.Variant\_annotation,a.CGA\_WES\_AC,a.HC\_AC,a.RD\_AC,a.RNAseq\_AC,a.SangerWES\_AC,a.WGS\_AC,b.DepMap\_ID,b.CCLE\_Name,b.gistic\_cnFROMccle\_mutationaJOINccle\_cn\_gisticbONa.Hugo\_Symbol='JAK1'ANDa.DepMap\_ID=b.DepMap\_IDORDERBYa.DepMap\_ID,b.gistic\_cn;'''Thisquerywillreturnallthecolumnsfromthe'ccle\_mutation'tableandthe'gistic\_cn'columnfromthe'ccle\_cn\_gistic'table,filteredbytheHugo\_Symbol'JAK1'.TheresultwillbesortedbyDepMap\_IDandgistic\_cn,showingtherelationshipbetweendependencyscoresofJAK1inDepMapDB.</t>
   </si>
 </sst>
 </file>
@@ -407,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,71 +444,344 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>5.945684909820557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>6.478486061096191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3.34648323059082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>4.022582054138184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>5.265105009078979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>3.41448712348938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>17.66865396499634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>19.49489092826843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>19.47264814376831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14.47168111801147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>15.66214394569397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>15.70917820930481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>373.5638041496277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>14.69865083694458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>8.442976951599121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2.739591836929321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>14.62731289863586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>10.90758514404297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>160.7280790805817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>20.47081613540649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>15.38069915771484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>23.61710119247437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>21.02392292022705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>10.95846199989319</v>
       </c>
     </row>
   </sheetData>
